--- a/output1.xlsx
+++ b/output1.xlsx
@@ -479,7 +479,7 @@
         <v>2623200480</v>
       </c>
       <c r="B10" t="str">
-        <v>ФОП ЛУКІНА НАТАЛІЯ ОЛЕКСАНДРІВНА</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
@@ -495,7 +495,7 @@
         <v>2624218738</v>
       </c>
       <c r="B12" t="str">
-        <v>ФОП КУНИК ДМИТРО ВАСИЛЬОВИЧ</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13">
@@ -503,7 +503,7 @@
         <v>2624414095</v>
       </c>
       <c r="B13" t="str">
-        <v>ФОП БАЗАРОВ ВЛАДИСЛАВ ГЕННАДІЙОВИЧ</v>
+        <v>Невідома помилка</v>
       </c>
     </row>
   </sheetData>
